--- a/T2/datasets/IO/CEFD.xlsx
+++ b/T2/datasets/IO/CEFD.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -538,12 +538,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -600,12 +600,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -693,12 +693,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -755,12 +755,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -786,12 +786,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -848,12 +848,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -879,12 +879,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -910,12 +910,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -972,12 +972,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1003,12 +1003,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1065,12 +1065,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1096,12 +1096,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Dança - Licenciatura</t>
+          <t>Danca - Licenciatura</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1158,12 +1158,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1220,12 +1220,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1251,12 +1251,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1282,12 +1282,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1313,12 +1313,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1344,12 +1344,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1375,12 +1375,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1406,12 +1406,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1468,12 +1468,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1499,12 +1499,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1530,12 +1530,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1592,12 +1592,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1654,12 +1654,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1747,12 +1747,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1809,12 +1809,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Educação Física</t>
+          <t>Educacao Fisica</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1840,12 +1840,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1871,12 +1871,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1902,12 +1902,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1933,12 +1933,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1964,12 +1964,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1995,12 +1995,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2026,12 +2026,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2057,12 +2057,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2119,12 +2119,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2150,12 +2150,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2181,12 +2181,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2212,12 +2212,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2274,12 +2274,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2336,12 +2336,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2398,12 +2398,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2429,12 +2429,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2491,12 +2491,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Educação Física - Bacharelado</t>
+          <t>Educacao Fisica - Bacharelado</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Graduação</t>
+          <t>Graduacao</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
